--- a/pred_ohlcv/54_21/2019-11-18 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 CHR ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>-21398846.29971577</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-21382572.42971577</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-21366742.24601576</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-21408014.69371577</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-21522999.35191577</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-21488978.25311577</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-21481109.71121576</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-21399674.44181576</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21772927.86349554</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-21781413.05919554</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-21207893.92929554</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-20295383.78419554</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-21001284.05841621</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21091306.63168631</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-22124429.33128525</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-22037008.96348525</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-22433469.30688525</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-22449512.16228525</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-22373303.53988525</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-22376190.33228525</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-22423899.45098525</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-22439684.72318525</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-22430971.48488525</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-22482896.35768525</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-22482875.35768525</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-22489474.72988525</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-22497582.35678525</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-22483470.52278525</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-22486284.07588525</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-22493218.05798525</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-22455313.28888525</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-21878906.65048525</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-21941471.25768525</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-21938466.39408525</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-21763904.06628525</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-21818110.14028525</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-21679819.62878525</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-21692656.13328525</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-21760164.91718525</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-21721796.94728525</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-21733578.97038525</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-21730604.65638525</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-21696337.80128526</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-21697358.80128526</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-21670995.41858526</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-21698866.66668526</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-18 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-18 CHR ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>-21398846.29971577</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-21398663.13621577</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-21393702.03171577</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-21382572.42971577</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-21353548.07741577</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-21343004.34251577</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-21366742.24601576</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-21408014.69371577</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-21459963.45981577</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-21522999.35191577</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-21489376.68451577</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-21488978.25311577</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-21481109.71121576</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-21399674.44181576</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-21253709.02509554</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-21094011.47839554</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-21772927.86349554</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-21781413.05919554</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-21207893.92929554</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-20295383.78419554</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-20512156.74609554</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-20441387.55969554</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-20782119.69929554</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-20562494.39469554</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-21001284.05841621</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-21091306.63168631</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-21063656.34538632</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-22124429.33128525</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-22139285.69648525</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-22037008.96348525</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-22433469.30688525</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-22449512.16228525</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-22423920.45098525</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-22423899.45098525</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-22439705.72318525</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-22439684.72318525</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-22432321.50778525</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-22438551.18268525</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-22372827.18268525</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-22430971.48488525</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-22482896.35768525</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-22482875.35768525</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-22489474.72988525</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-22497582.35678525</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-22483470.52278525</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-22486284.07588525</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-22493218.05798525</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-22493197.05798525</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-22472830.63398525</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-22455313.28888525</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-22111027.41528525</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-21908911.82718525</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-21791775.38508525</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-21841330.12988525</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-21838315.26298525</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-21878906.65048525</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-21894833.66228525</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-21941471.25768525</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-21938466.39408525</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-21930529.52028525</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-21890708.02058525</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-21744406.83438525</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-21762308.33738525</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-21763904.06628525</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-21779118.23988525</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-21815131.14028525</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-21815110.14028525</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-21818110.14028525</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-21679819.62878525</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-21692656.13328525</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-21760164.91718525</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-21721796.94728525</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-21733578.97038525</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-21730604.65638525</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-21730583.65638525</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-21718380.27348525</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-21696337.80128526</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-21697358.80128526</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-21670995.41858526</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-21698866.66668526</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
